--- a/Dokumentationen/Projektbegleitender Bericht.xlsx
+++ b/Dokumentationen/Projektbegleitender Bericht.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Documents\GitHub\sejava\Dokumentationen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8910"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Tabellenblatt1" sheetId="1" r:id="rId3"/>
+    <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -88,43 +96,62 @@
     <t>Obfuscator</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>Softwarewartung</t>
+  </si>
+  <si>
+    <t>Anpassung Pflichtenheft an neue Anforderung</t>
+  </si>
+  <si>
+    <t>Total EWUmgebung aufsetzen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="d.m.yyyy"/>
-    <numFmt numFmtId="165" formatCode="d.m"/>
-    <numFmt numFmtId="166" formatCode="dd.mm.yyyy"/>
+    <numFmt numFmtId="164" formatCode="d\.m\.yyyy"/>
+    <numFmt numFmtId="165" formatCode="d\.m"/>
+    <numFmt numFmtId="166" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -134,6 +161,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -142,66 +170,356 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="39.0"/>
-    <col customWidth="1" min="2" max="2" width="30.0"/>
-    <col customWidth="1" min="3" max="3" width="45.29"/>
-    <col customWidth="1" min="4" max="4" width="35.29"/>
-    <col customWidth="1" min="5" max="5" width="32.71"/>
-    <col customWidth="1" min="6" max="6" width="35.86"/>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -221,7 +539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -237,19 +555,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="7">
-        <v>42837.0</v>
+        <v>42837</v>
       </c>
       <c r="C4" s="6">
         <v>1.5</v>
@@ -258,12 +576,12 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7">
-        <v>42838.0</v>
+        <v>42838</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6">
@@ -276,30 +594,30 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="7">
-        <v>42846.0</v>
+        <v>42846</v>
       </c>
       <c r="C6" s="6">
         <v>1.5</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="6">
         <v>1.5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="7">
-        <v>42846.0</v>
+        <v>42846</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="6">
@@ -308,12 +626,12 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="7">
-        <v>42852.0</v>
+        <v>42852</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="6">
@@ -322,12 +640,12 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="7">
-        <v>42852.0</v>
+        <v>42852</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -336,12 +654,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="7">
-        <v>42852.0</v>
+        <v>42852</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -350,26 +668,26 @@
       </c>
       <c r="F10" s="8"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="7">
-        <v>42852.0</v>
+        <v>42852</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="8"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="7">
-        <v>42852.0</v>
+        <v>42852</v>
       </c>
       <c r="C12" s="6">
         <v>1.5</v>
@@ -378,26 +696,26 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="7">
-        <v>42858.0</v>
+        <v>42858</v>
       </c>
       <c r="C13" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="7">
-        <v>42860.0</v>
+        <v>42860</v>
       </c>
       <c r="C14" s="6">
         <v>1.5</v>
@@ -408,12 +726,12 @@
       </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="7">
-        <v>42860.0</v>
+        <v>42860</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -422,12 +740,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="7">
-        <v>42860.0</v>
+        <v>42860</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="6">
@@ -435,15 +753,15 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="7">
-        <v>42864.0</v>
+        <v>42864</v>
       </c>
       <c r="C17" s="6">
         <v>1.5</v>
@@ -454,26 +772,26 @@
       </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="7">
-        <v>42864.0</v>
+        <v>42864</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="7">
-        <v>42866.0</v>
+        <v>42866</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="6">
@@ -484,12 +802,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="7">
-        <v>42866.0</v>
+        <v>42866</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -498,12 +816,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="7">
-        <v>42866.0</v>
+        <v>42866</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -512,12 +830,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="7">
-        <v>42870.0</v>
+        <v>42870</v>
       </c>
       <c r="C22" s="6">
         <v>0.5</v>
@@ -528,7 +846,7 @@
       </c>
       <c r="F22" s="8"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -536,12 +854,12 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C25" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D25" s="2">
         <v>7.5</v>
@@ -553,7 +871,26 @@
         <v>8.5</v>
       </c>
     </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="11">
+        <v>42874</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Dokumentationen/Projektbegleitender Bericht.xlsx
+++ b/Dokumentationen/Projektbegleitender Bericht.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>Total EWUmgebung aufsetzen</t>
+  </si>
+  <si>
+    <t>Anpassung Quellcode an neue Anforderung</t>
+  </si>
+  <si>
+    <t>Anpassung UMLS an neue Anforderung</t>
+  </si>
+  <si>
+    <t>Anpassung Prototyp an neue Anforderung</t>
+  </si>
+  <si>
+    <t>Überarbeitung Pflichtenheft, Anwender- &amp; Admindoku</t>
   </si>
 </sst>
 </file>
@@ -150,7 +162,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,15 +515,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="45.28515625" customWidth="1"/>
     <col min="4" max="4" width="35.28515625" customWidth="1"/>
@@ -890,6 +902,62 @@
         <v>1</v>
       </c>
     </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="11">
+        <v>42874</v>
+      </c>
+      <c r="C30" s="10">
+        <v>1</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="11">
+        <v>42874</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10">
+        <v>1</v>
+      </c>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="11">
+        <v>42888</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10">
+        <v>1</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="11">
+        <v>42888</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dokumentationen/Projektbegleitender Bericht.xlsx
+++ b/Dokumentationen/Projektbegleitender Bericht.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>Überarbeitung Pflichtenheft, Anwender- &amp; Admindoku</t>
+  </si>
+  <si>
+    <t>Rechnungsstellung</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Total Softwarewartung</t>
   </si>
 </sst>
 </file>
@@ -167,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -184,11 +193,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -201,6 +219,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -515,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -896,7 +917,9 @@
         <v>42874</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+      <c r="D29" s="10">
+        <v>0.5</v>
+      </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10">
         <v>1</v>
@@ -958,6 +981,50 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="11">
+        <v>42894</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14">
+        <v>1</v>
+      </c>
+      <c r="D37" s="14">
+        <v>2</v>
+      </c>
+      <c r="E37" s="14">
+        <v>1</v>
+      </c>
+      <c r="F37" s="14">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dokumentationen/Projektbegleitender Bericht.xlsx
+++ b/Dokumentationen/Projektbegleitender Bericht.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Documents\GitHub\sejava\Dokumentationen\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8910"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -129,13 +124,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="d\.m\.yyyy"/>
     <numFmt numFmtId="165" formatCode="d\.m"/>
     <numFmt numFmtId="166" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -224,7 +219,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -282,7 +277,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -334,7 +329,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -528,21 +523,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="D28" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
@@ -552,7 +547,7 @@
     <col min="6" max="6" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -588,14 +583,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -609,7 +604,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -627,7 +622,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -645,7 +640,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -659,7 +654,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -673,7 +668,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -687,7 +682,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
@@ -701,7 +696,7 @@
       </c>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
@@ -715,7 +710,7 @@
       </c>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
@@ -729,7 +724,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -743,7 +738,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
@@ -759,7 +754,7 @@
       </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>17</v>
       </c>
@@ -773,7 +768,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
@@ -789,7 +784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
@@ -805,7 +800,7 @@
       </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>20</v>
       </c>
@@ -819,7 +814,7 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>21</v>
       </c>
@@ -835,7 +830,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>22</v>
       </c>
@@ -849,7 +844,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>23</v>
       </c>
@@ -863,7 +858,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>24</v>
       </c>
@@ -879,7 +874,7 @@
       </c>
       <c r="F22" s="8"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -887,7 +882,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -904,12 +899,12 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="10" t="s">
         <v>26</v>
       </c>
@@ -925,7 +920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="10" t="s">
         <v>28</v>
       </c>
@@ -939,7 +934,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="10" t="s">
         <v>29</v>
       </c>
@@ -953,7 +948,7 @@
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="10" t="s">
         <v>30</v>
       </c>
@@ -967,7 +962,7 @@
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="10" t="s">
         <v>31</v>
       </c>
@@ -981,17 +976,21 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="10"/>
+      <c r="B34" s="11">
+        <v>42899</v>
+      </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
+      <c r="E34" s="10">
+        <v>1</v>
+      </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="10" t="s">
         <v>32</v>
       </c>
@@ -1007,7 +1006,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="12" t="s">
         <v>34</v>
       </c>
@@ -1019,7 +1018,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="14">
         <v>2</v>
